--- a/Data/IAEA_Reference_DecayCorrection.xlsx
+++ b/Data/IAEA_Reference_DecayCorrection.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2B2B94-B01F-43FA-97C8-81A2C6DBE64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chilaitang/Library/Mobile Documents/com~apple~CloudDocs/UCL PHY/Lab Y3/HPGe_lab_y3/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CB5CB3-F97D-B348-8037-7F53789F1A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="5400" windowWidth="18940" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +47,6 @@
     <t>Abs_Activity_Unc</t>
   </si>
   <si>
-    <t>K40</t>
-  </si>
-  <si>
     <t>Pb210</t>
   </si>
   <si>
@@ -67,18 +69,29 @@
   </si>
   <si>
     <t>Pu241</t>
+  </si>
+  <si>
+    <t>Sr90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -122,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -421,14 +434,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -444,7 +457,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.33900000000000002</v>
@@ -455,7 +468,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>28.5</v>
@@ -466,7 +479,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>29</v>
@@ -477,7 +490,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>33.6</v>
@@ -488,7 +501,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1.36</v>
@@ -499,7 +512,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1.8499999999999999E-2</v>
@@ -510,7 +523,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1.92</v>
@@ -521,7 +534,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1.18</v>
@@ -532,7 +545,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>9.9</v>
@@ -542,6 +555,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>